--- a/reports/all_the_reports.xlsx
+++ b/reports/all_the_reports.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Currency" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Script Data" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +454,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="13" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="30" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="30" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="30" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="30" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,6 +548,364 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>URL Status Code</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7ebefdc0df40&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>URL Status Code</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7ebefdc0fb00&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="56" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="36" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/cabrils/BC-1178728</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Prices updated successfully in USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/cabrils/BC-1178728</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Prices updated successfully in CAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/cabrils/BC-1178728</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Prices updated successfully in EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/cabrils/BC-1178728</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Prices updated successfully in GBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/cabrils/BC-1178728</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Prices updated successfully in AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/cabrils/BC-1178728</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Prices updated successfully in SGD</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/cabrils/BC-1178728</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Prices updated successfully in AED</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/cabrils/BC-1178728</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Prices updated successfully in BDT</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SiteURL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SiteName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CountryCode</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CampaignID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>alo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>182.160.106.203</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ALOJAMIENTO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
